--- a/lab3_codes/Test_Vectors.xlsx
+++ b/lab3_codes/Test_Vectors.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Labo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paoto\Documents\VUB\ELECH473\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>pos1_pos2</t>
   </si>
@@ -56,8 +56,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,8 +65,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,18 +89,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,15 +102,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,728 +411,783 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
     <col min="3" max="4" width="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
     <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="str">
         <f>DEC2HEX(B2)</f>
         <v>1</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="4" t="str">
         <f>DEC2BIN(B2)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="4" t="str">
         <f>DEC2HEX(E2)</f>
         <v>2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="4" t="str">
         <f>DEC2BIN(E2)</f>
         <v>10</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" s="4" t="b">
         <f>B2&lt;=E2</f>
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <f>IF(H2=TRUE,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="4" t="str">
         <f t="shared" ref="C3:C20" si="0">DEC2HEX(B3)</f>
         <v>2</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D20" si="1">DEC2BIN(B3)</f>
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" t="str">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="str">
         <f t="shared" ref="F3:F20" si="2">DEC2HEX(E3)</f>
         <v>1</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="4" t="str">
         <f t="shared" ref="G3:G20" si="3">DEC2BIN(E3)</f>
         <v>1</v>
       </c>
-      <c r="H3" t="b">
+      <c r="H3" s="4" t="b">
         <f t="shared" ref="H3:H20" si="4">B3&lt;=E3</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I20" si="5">IF(H3=TRUE,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3">
         <v>32767</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7FFF</v>
       </c>
-      <c r="D4" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" s="5">
         <v>32766</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>7FFE</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="G4" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
         <v>32766</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7FFE</v>
       </c>
-      <c r="D5" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" s="5">
         <v>32767</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>7FFF</v>
       </c>
-      <c r="G5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="G5" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>-1</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FFFFFFFFFF</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1111111111</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>-2</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>FFFFFFFFFE</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1111111110</v>
       </c>
-      <c r="H6" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="H6" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3">
         <v>-2</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="4" t="str">
         <f>DEC2HEX(B7)</f>
         <v>FFFFFFFFFE</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="4" t="str">
         <f>DEC2BIN(B7)</f>
         <v>1111111110</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>-1</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="4" t="str">
         <f>DEC2HEX(E7)</f>
         <v>FFFFFFFFFF</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="4" t="str">
         <f>DEC2BIN(E7)</f>
         <v>1111111111</v>
       </c>
-      <c r="H7" t="b">
+      <c r="H7" s="4" t="b">
         <f>B7&lt;=E7</f>
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <f>IF(H7=TRUE,1,0)</f>
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
         <v>-32766</v>
       </c>
-      <c r="E8" s="1">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
         <v>-32767</v>
       </c>
-      <c r="H8" t="b">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="b">
         <f t="shared" ref="H8:H9" si="6">B8&lt;=E8</f>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <f t="shared" ref="I8:I9" si="7">IF(H8=TRUE,1,0)</f>
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
         <v>-32767</v>
       </c>
-      <c r="E9" s="1">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5">
         <v>-32766</v>
       </c>
-      <c r="H9" t="b">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
         <v>-32768</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FFFFFF8000</v>
       </c>
-      <c r="D10" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" s="5">
         <v>-32767</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>FFFFFF8001</v>
       </c>
-      <c r="G10" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="G10" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
         <v>-32767</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FFFFFF8001</v>
       </c>
-      <c r="D11" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" s="5">
         <v>-32768</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>FFFFFF8000</v>
       </c>
-      <c r="G11" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H11" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="G11" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
         <v>-1</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>FFFFFFFFFF</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="4" t="str">
         <f t="shared" si="3"/>
         <v>1111111111</v>
       </c>
-      <c r="H12" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="H12" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3">
         <v>32767</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7FFF</v>
       </c>
-      <c r="D13" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E13" s="5">
         <v>-32768</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>FFFFFF8000</v>
       </c>
-      <c r="G13" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H13" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="G13" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>-1</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FFFFFFFFFF</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1111111111</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
         <v>-32768</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FFFFFF8000</v>
       </c>
-      <c r="D15" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" s="5">
         <v>32767</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>7FFF</v>
       </c>
-      <c r="G15" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H15" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="G15" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3">
         <v>128</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="str">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <v>128</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="4" t="str">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="H17" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J17">
+      <c r="H17" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
         <v>-32768</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FFFFFF8000</v>
       </c>
-      <c r="D18" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" s="5">
         <v>-32768</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>FFFFFF8000</v>
       </c>
-      <c r="G18" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H18" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="G18" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
         <v>-32767</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FFFFFF8001</v>
       </c>
-      <c r="D19" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E19" s="5">
         <v>-32767</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>FFFFFF8001</v>
       </c>
-      <c r="G19" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H19" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="G19" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3">
         <v>32767</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7FFF</v>
       </c>
-      <c r="D20" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" s="5">
         <v>32767</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>7FFF</v>
       </c>
-      <c r="G20" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H20" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="G20" s="4" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
